--- a/docs/Tables.xlsx
+++ b/docs/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pecuniary\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4300581-6801-40D3-B927-9553F6FBB1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE528C8B-D00A-4101-BC76-1BD77731F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23505" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -547,9 +547,6 @@
     <t>transactionDate (desc)</t>
   </si>
   <si>
-    <t>getAllAccount</t>
-  </si>
-  <si>
     <t>Get all entities in a single account</t>
   </si>
   <si>
@@ -571,10 +568,40 @@
     <t>entity = position</t>
   </si>
   <si>
-    <t>aggregateId (GSI)</t>
-  </si>
-  <si>
-    <t>aggregateId = &lt;accountId&gt;</t>
+    <t>createAccount</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>createTransaction</t>
+  </si>
+  <si>
+    <t>createPostion</t>
+  </si>
+  <si>
+    <t>Create a transaction</t>
+  </si>
+  <si>
+    <t>Create a position</t>
+  </si>
+  <si>
+    <t>Create an account</t>
+  </si>
+  <si>
+    <t>getAccountDetail</t>
+  </si>
+  <si>
+    <t>accountId (GSI)</t>
+  </si>
+  <si>
+    <t>accountId-gsi</t>
+  </si>
+  <si>
+    <t>accountId = &lt;accountId&gt;</t>
+  </si>
+  <si>
+    <t>accoutnId = &lt;accountId&gt;</t>
   </si>
 </sst>
 </file>
@@ -608,7 +635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +657,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -773,32 +806,41 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C67D2A-5435-4CFA-A6DE-EEB96100D814}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A25" sqref="A25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,24 +1187,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -1178,18 +1220,18 @@
       <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -1198,10 +1240,10 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -1211,7 +1253,7 @@
         <v>94</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>25</v>
@@ -1237,8 +1279,8 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="12" t="s">
         <v>122</v>
       </c>
@@ -1271,10 +1313,10 @@
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -1284,7 +1326,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>25</v>
@@ -1309,8 +1351,8 @@
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="12" t="s">
         <v>122</v>
       </c>
@@ -1343,10 +1385,10 @@
       <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -1356,7 +1398,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>25</v>
@@ -1381,8 +1423,8 @@
       <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="12" t="s">
         <v>122</v>
       </c>
@@ -1415,10 +1457,10 @@
       <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -1428,7 +1470,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1461,8 +1503,8 @@
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
         <v>122</v>
       </c>
@@ -1503,10 +1545,10 @@
       <c r="U10" s="6"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -1516,7 +1558,7 @@
         <v>94</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>25</v>
@@ -1549,8 +1591,8 @@
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
@@ -1591,10 +1633,10 @@
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -1604,7 +1646,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>25</v>
@@ -1637,8 +1679,8 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1679,10 +1721,10 @@
       <c r="U14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -1692,7 +1734,7 @@
         <v>94</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>25</v>
@@ -1723,8 +1765,8 @@
       <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
         <v>122</v>
       </c>
@@ -1763,10 +1805,10 @@
       <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -1776,7 +1818,7 @@
         <v>94</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>24</v>
@@ -1813,8 +1855,8 @@
       <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
         <v>122</v>
       </c>
@@ -1860,10 +1902,10 @@
       <c r="U18" s="6"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1873,7 +1915,7 @@
         <v>94</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>24</v>
@@ -1910,8 +1952,8 @@
       <c r="U19" s="6"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="12" t="s">
         <v>122</v>
       </c>
@@ -1992,69 +2034,83 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B24" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C24" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D24" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E24" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F24" s="40" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="C25" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="27" t="s">
+      <c r="D25" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>68</v>
-      </c>
+      <c r="F25" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>83</v>
@@ -2062,132 +2118,166 @@
       <c r="D26" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>144</v>
+      <c r="G26" s="27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E28" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="F30" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D33" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="F33" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C1:N2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -2197,12 +2287,11 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2240,23 +2329,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="10"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
@@ -2273,17 +2362,17 @@
       <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2293,10 +2382,10 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -2329,8 +2418,8 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
@@ -2359,10 +2448,10 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -2393,8 +2482,8 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
@@ -2423,10 +2512,10 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -2457,8 +2546,8 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -2487,10 +2576,10 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -2529,8 +2618,8 @@
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
@@ -2567,10 +2656,10 @@
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2609,8 +2698,8 @@
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -2647,10 +2736,10 @@
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -2689,8 +2778,8 @@
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
@@ -2727,10 +2816,10 @@
       <c r="T14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -2767,8 +2856,8 @@
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
@@ -2803,10 +2892,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -2849,8 +2938,8 @@
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
         <v>16</v>
       </c>
@@ -2892,10 +2981,10 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -2938,8 +3027,8 @@
       <c r="T19" s="6"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="12" t="s">
         <v>16</v>
       </c>
@@ -2987,10 +3076,10 @@
       <c r="A23" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="22" t="s">
         <v>83</v>
       </c>
@@ -3194,6 +3283,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A5:A6"/>
@@ -3202,19 +3304,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Tables.xlsx
+++ b/docs/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pecuniary\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE528C8B-D00A-4101-BC76-1BD77731F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D6569-43EA-414A-B756-7D3F4FB90E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23505" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="173">
   <si>
     <t>name</t>
   </si>
@@ -496,9 +496,6 @@
     <t>Get all transactions by account</t>
   </si>
   <si>
-    <t>entity = equity-transaction</t>
-  </si>
-  <si>
     <t>Get all user aggregates</t>
   </si>
   <si>
@@ -559,15 +556,9 @@
     <t>accountId, symbol</t>
   </si>
   <si>
-    <t>symbol = symbol</t>
-  </si>
-  <si>
     <t>getPositions</t>
   </si>
   <si>
-    <t>entity = position</t>
-  </si>
-  <si>
     <t>createAccount</t>
   </si>
   <si>
@@ -602,6 +593,30 @@
   </si>
   <si>
     <t>accoutnId = &lt;accountId&gt;</t>
+  </si>
+  <si>
+    <t>entity-gsi</t>
+  </si>
+  <si>
+    <t>entity (GSI)</t>
+  </si>
+  <si>
+    <t>entity = account, userId = &lt;userId&gt;</t>
+  </si>
+  <si>
+    <t>symbol = symbol, userId = &lt;userId&gt;</t>
+  </si>
+  <si>
+    <t>entity = position, userId = &lt;userId&gt;</t>
+  </si>
+  <si>
+    <t>entity = equity-transaction, userId = &lt;userId&gt;</t>
+  </si>
+  <si>
+    <t>updateTransaction</t>
+  </si>
+  <si>
+    <t>Update a transaction</t>
   </si>
 </sst>
 </file>
@@ -724,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -806,41 +821,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1157,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C67D2A-5435-4CFA-A6DE-EEB96100D814}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:K25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1180,7 @@
     <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -1187,24 +1196,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -1220,18 +1229,18 @@
       <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -1241,19 +1250,19 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>25</v>
@@ -1288,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>4</v>
@@ -1314,19 +1323,19 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>25</v>
@@ -1360,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>5</v>
@@ -1386,19 +1395,19 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>25</v>
@@ -1432,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>30</v>
@@ -1458,19 +1467,19 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1512,7 +1521,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>6</v>
@@ -1546,19 +1555,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>25</v>
@@ -1600,7 +1609,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>6</v>
@@ -1634,19 +1643,19 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>25</v>
@@ -1688,7 +1697,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>6</v>
@@ -1722,19 +1731,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>25</v>
@@ -1774,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>28</v>
@@ -1808,17 +1817,17 @@
       <c r="A17" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>24</v>
@@ -1856,7 +1865,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="35"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="12" t="s">
         <v>122</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>10</v>
@@ -1905,17 +1914,17 @@
       <c r="A19" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>24</v>
@@ -1953,7 +1962,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="12" t="s">
         <v>122</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>41</v>
@@ -2034,108 +2043,124 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="39" t="s">
+    <row r="23" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-    </row>
-    <row r="24" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="40" t="s">
+      <c r="E25" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-    </row>
-    <row r="25" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="40" t="s">
+      <c r="D26" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-    </row>
-    <row r="26" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>68</v>
-      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>160</v>
+      <c r="C27" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>142</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>83</v>
@@ -2144,18 +2169,21 @@
         <v>120</v>
       </c>
       <c r="E28" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="27" t="s">
-        <v>144</v>
+      <c r="G28" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>151</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>83</v>
@@ -2164,18 +2192,18 @@
         <v>120</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>130</v>
@@ -2184,100 +2212,123 @@
         <v>83</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>138</v>
+    </row>
+    <row r="32" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>165</v>
+      <c r="D33" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>166</v>
+        <v>136</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>146</v>
+      <c r="G35" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C1:N2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -2292,6 +2343,12 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2329,23 +2386,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="10"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
@@ -2362,17 +2419,17 @@
       <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2895,7 +2952,7 @@
       <c r="A17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -2939,7 +2996,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="35"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="12" t="s">
         <v>16</v>
       </c>
@@ -2984,7 +3041,7 @@
       <c r="A19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -3028,7 +3085,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="12" t="s">
         <v>16</v>
       </c>
@@ -3283,11 +3340,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -3296,14 +3356,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Tables.xlsx
+++ b/docs/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pecuniary\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AMAABCA\eric-bach\pecuniary\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D6569-43EA-414A-B756-7D3F4FB90E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE7AC92-9ADF-47E9-878F-9FDF72728DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23505" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
+    <workbookView xWindow="20865" yWindow="4020" windowWidth="25380" windowHeight="15270" xr2:uid="{6AC31791-E6D3-4762-A3D2-8A55CA9F95FA}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable v2" sheetId="9" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
   <si>
     <t>name</t>
   </si>
@@ -544,9 +555,6 @@
     <t>transactionDate (desc)</t>
   </si>
   <si>
-    <t>Get all entities in a single account</t>
-  </si>
-  <si>
     <t>getPositionBySymbol</t>
   </si>
   <si>
@@ -580,9 +588,6 @@
     <t>Create an account</t>
   </si>
   <si>
-    <t>getAccountDetail</t>
-  </si>
-  <si>
     <t>accountId (GSI)</t>
   </si>
   <si>
@@ -592,9 +597,6 @@
     <t>accountId = &lt;accountId&gt;</t>
   </si>
   <si>
-    <t>accoutnId = &lt;accountId&gt;</t>
-  </si>
-  <si>
     <t>entity-gsi</t>
   </si>
   <si>
@@ -617,6 +619,30 @@
   </si>
   <si>
     <t>Update a transaction</t>
+  </si>
+  <si>
+    <t>updateAccount</t>
+  </si>
+  <si>
+    <t>Update an account</t>
+  </si>
+  <si>
+    <t>accountId, type</t>
+  </si>
+  <si>
+    <t>userId = &lt;userId&gt;, type = type (optional)</t>
+  </si>
+  <si>
+    <t>getAggregate</t>
+  </si>
+  <si>
+    <t>deleteAggregate</t>
+  </si>
+  <si>
+    <t>Delete an aggregate</t>
+  </si>
+  <si>
+    <t>Get an aggregate</t>
   </si>
 </sst>
 </file>
@@ -626,7 +652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +669,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -739,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -824,32 +858,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1166,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C67D2A-5435-4CFA-A6DE-EEB96100D814}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,24 +1233,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -1229,18 +1266,18 @@
       <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -1249,20 +1286,20 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>25</v>
@@ -1288,8 +1325,8 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12" t="s">
         <v>122</v>
       </c>
@@ -1322,20 +1359,20 @@
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>25</v>
@@ -1360,8 +1397,8 @@
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="12" t="s">
         <v>122</v>
       </c>
@@ -1394,20 +1431,20 @@
       <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>25</v>
@@ -1432,8 +1469,8 @@
       <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="12" t="s">
         <v>122</v>
       </c>
@@ -1466,20 +1503,20 @@
       <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1512,8 +1549,8 @@
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="12" t="s">
         <v>122</v>
       </c>
@@ -1554,20 +1591,20 @@
       <c r="U10" s="6"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>25</v>
@@ -1600,8 +1637,8 @@
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
@@ -1642,20 +1679,20 @@
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>25</v>
@@ -1688,8 +1725,8 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1730,20 +1767,20 @@
       <c r="U14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>25</v>
@@ -1774,8 +1811,8 @@
       <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
         <v>122</v>
       </c>
@@ -1814,20 +1851,20 @@
       <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>24</v>
@@ -1864,8 +1901,8 @@
       <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="12" t="s">
         <v>122</v>
       </c>
@@ -1911,20 +1948,20 @@
       <c r="U18" s="6"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>24</v>
@@ -1961,8 +1998,8 @@
       <c r="U19" s="6"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="12" t="s">
         <v>122</v>
       </c>
@@ -2045,20 +2082,26 @@
     </row>
     <row r="23" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+        <v>160</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>173</v>
+      </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -2066,26 +2109,20 @@
     </row>
     <row r="24" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>145</v>
-      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -2093,26 +2130,20 @@
     </row>
     <row r="25" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>145</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -2120,215 +2151,269 @@
     </row>
     <row r="26" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="29" t="s">
-        <v>167</v>
-      </c>
+      <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="A27" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>120</v>
       </c>
+      <c r="E27" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="A28" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>145</v>
-      </c>
+      <c r="D28" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="30" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>120</v>
       </c>
+      <c r="E31" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="32" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="B33" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="27" t="s">
+    </row>
+    <row r="34" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C1:N2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -2343,12 +2428,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2386,23 +2465,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="10"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
@@ -2419,17 +2498,17 @@
       <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2439,10 +2518,10 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -2475,8 +2554,8 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
@@ -2505,10 +2584,10 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -2539,8 +2618,8 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
@@ -2569,10 +2648,10 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -2603,8 +2682,8 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -2633,10 +2712,10 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -2675,8 +2754,8 @@
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
@@ -2713,10 +2792,10 @@
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2755,8 +2834,8 @@
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -2793,10 +2872,10 @@
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -2835,8 +2914,8 @@
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
@@ -2873,10 +2952,10 @@
       <c r="T14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -2913,8 +2992,8 @@
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
@@ -2949,10 +3028,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -2995,8 +3074,8 @@
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="12" t="s">
         <v>16</v>
       </c>
@@ -3038,10 +3117,10 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="36" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -3084,8 +3163,8 @@
       <c r="T19" s="6"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="12" t="s">
         <v>16</v>
       </c>
@@ -3133,10 +3212,10 @@
       <c r="A23" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="22" t="s">
         <v>83</v>
       </c>
@@ -3340,6 +3419,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A5:A6"/>
@@ -3348,19 +3440,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
